--- a/Assignment3/Py_Code/flour.xlsx
+++ b/Assignment3/Py_Code/flour.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Weights</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,66 +351,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>4.97</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1">
-        <v>5.05</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1">
-        <v>5.0599999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1">
-        <v>5.08</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1">
-        <v>4.9800000000000004</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1">
-        <v>5.04</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
     </row>
